--- a/QueryCau2.xlsx
+++ b/QueryCau2.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\OLAP\IS217_Q13_23521367_23520982\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\IS217_Q13_23521367_23520982\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0A41F5-7AB3-41E2-BCCC-49BFE611580D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C99E591-C36B-4E1C-BA9B-0FAD13A8841E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{3E15CC6B-CCDE-4D92-B287-CFDFAE1B9D74}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{31A3318D-E384-4BCD-895B-CB4006D8E025}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp3075" sheetId="1" r:id="rId1"/>
+    <sheet name="tmpBA86" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="61" r:id="rId2"/>
+    <pivotCache cacheId="13" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{2ADB1097-1F15-4E6E-BDEF-4DF0CE270069}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmp3075.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{BD0784F8-18C8-4564-A788-6B1DEE8FBE77}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmpBA86.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas_project;Data Source=SINISTER;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="US Accidents DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -56,6 +56,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
+    <t>Total Accidents</t>
+  </si>
+  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>San Diego</t>
-  </si>
-  <si>
-    <t>Total Accidents</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -590,11 +590,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -654,56 +654,56 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45970.464113657406" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2E25FAB4-FFB9-49C5-BB87-6CC0CC23B6C6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45977.391248032407" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E892FDBC-C331-46B3-A577-6EB3CD6FB71F}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="11">
-    <cacheField name="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" numFmtId="0" hierarchy="51">
+    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="47" level="32767"/>
+    <cacheField name="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" numFmtId="0" hierarchy="58">
       <sharedItems count="13">
-        <s v="[DIM LOCATION].[CITY].&amp;[Atlanta]&amp;[Fulton]&amp;[GA]" c="Atlanta"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Austin]&amp;[Travis]&amp;[TX]" c="Austin"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Baton Rouge]&amp;[East Baton Rouge]&amp;[LA]" c="Baton Rouge"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Charlotte]&amp;[Mecklenburg]&amp;[NC]" c="Charlotte"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Dallas]&amp;[Dallas]&amp;[TX]" c="Dallas"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Houston]&amp;[Harris]&amp;[TX]" c="Houston"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Los Angeles]&amp;[Los Angeles]&amp;[CA]" c="Los Angeles"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]" c="Miami"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Orlando]&amp;[Orange]&amp;[FL]" c="Orlando"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Phoenix]&amp;[Maricopa]&amp;[AZ]" c="Phoenix"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Raleigh]&amp;[Wake]&amp;[NC]" c="Raleigh"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[Sacramento]&amp;[Sacramento]&amp;[CA]" c="Sacramento"/>
-        <s v="[DIM LOCATION].[CITY].&amp;[San Diego]&amp;[San Diego]&amp;[CA]" c="San Diego"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Atlanta]&amp;[Fulton]&amp;[GA]&amp;[US]" c="Atlanta"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Austin]&amp;[Travis]&amp;[TX]&amp;[US]" c="Austin"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Baton Rouge]&amp;[East Baton Rouge]&amp;[LA]&amp;[US]" c="Baton Rouge"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Charlotte]&amp;[Mecklenburg]&amp;[NC]&amp;[US]" c="Charlotte"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Dallas]&amp;[Dallas]&amp;[TX]&amp;[US]" c="Dallas"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Houston]&amp;[Harris]&amp;[TX]&amp;[US]" c="Houston"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Los Angeles]&amp;[Los Angeles]&amp;[CA]&amp;[US]" c="Los Angeles"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Miami]&amp;[Miami-Dade]&amp;[FL]&amp;[US]" c="Miami"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Orlando]&amp;[Orange]&amp;[FL]&amp;[US]" c="Orlando"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Phoenix]&amp;[Maricopa]&amp;[AZ]&amp;[US]" c="Phoenix"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Raleigh]&amp;[Wake]&amp;[NC]&amp;[US]" c="Raleigh"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[Sacramento]&amp;[Sacramento]&amp;[CA]&amp;[US]" c="Sacramento"/>
+        <s v="[DIM LOCATION].[CITY].&amp;[San Diego]&amp;[San Diego]&amp;[CA]&amp;[US]" c="San Diego"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="45" level="32767"/>
-    <cacheField name="[DIM TIME].[Hierarchy].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="24" level="1">
+    <cacheField name="[DIM TIME].[Hierarchy].[YEAR]" caption="YEAR" numFmtId="0" hierarchy="26" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[QUARTER]" caption="QUARTER" numFmtId="0" hierarchy="24" level="2">
+    <cacheField name="[DIM TIME].[Hierarchy].[QUARTER]" caption="QUARTER" numFmtId="0" hierarchy="26" level="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[MONTH]" caption="MONTH" numFmtId="0" hierarchy="24" level="3">
+    <cacheField name="[DIM TIME].[Hierarchy].[MONTH]" caption="MONTH" numFmtId="0" hierarchy="26" level="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[DAY]" caption="DAY" numFmtId="0" hierarchy="24" level="4">
+    <cacheField name="[DIM TIME].[Hierarchy].[DAY]" caption="DAY" numFmtId="0" hierarchy="26" level="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[HOUR]" caption="HOUR" numFmtId="0" hierarchy="24" level="5">
+    <cacheField name="[DIM TIME].[Hierarchy].[HOUR]" caption="HOUR" numFmtId="0" hierarchy="26" level="5">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[QUARTER].[YEAR]" caption="YEAR" propertyName="YEAR" numFmtId="0" hierarchy="24" level="2" memberPropertyField="1">
+    <cacheField name="[DIM TIME].[Hierarchy].[QUARTER].[YEAR]" caption="YEAR" propertyName="YEAR" numFmtId="0" hierarchy="26" level="2" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[MONTH].[QUARTER]" caption="QUARTER" propertyName="QUARTER" numFmtId="0" hierarchy="24" level="3" memberPropertyField="1">
+    <cacheField name="[DIM TIME].[Hierarchy].[MONTH].[QUARTER]" caption="QUARTER" propertyName="QUARTER" numFmtId="0" hierarchy="26" level="3" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[DAY].[MONTH]" caption="MONTH" propertyName="MONTH" numFmtId="0" hierarchy="24" level="4" memberPropertyField="1">
+    <cacheField name="[DIM TIME].[Hierarchy].[DAY].[MONTH]" caption="MONTH" propertyName="MONTH" numFmtId="0" hierarchy="26" level="4" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[DIM TIME].[Hierarchy].[HOUR].[DAY]" caption="DAY" propertyName="DAY" numFmtId="0" hierarchy="24" level="5" memberPropertyField="1">
+    <cacheField name="[DIM TIME].[Hierarchy].[HOUR].[DAY]" caption="DAY" propertyName="DAY" numFmtId="0" hierarchy="26" level="5" memberPropertyField="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="57">
+  <cacheHierarchies count="61">
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[AMENITY]" caption="AMENITY" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" allUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[BUMP]" caption="BUMP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" allUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[CROSSING]" caption="CROSSING" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" allUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
@@ -719,6 +719,7 @@
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL]" caption="TRAFFIC SIGNAL" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" allUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TURNING LOOP]" caption="TURNING LOOP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" allUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[CITY]" caption="CITY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[CITY].[All]" allUniqueName="[DIM LOCATION].[CITY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTRY]" caption="COUNTRY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTRY].[All]" allUniqueName="[DIM LOCATION].[COUNTRY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTY].[All]" allUniqueName="[DIM LOCATION].[COUNTY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM LOCATION].[Hierarchy].[All]" allUniqueName="[DIM LOCATION].[Hierarchy].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LATITUDE]" caption="LATITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LATITUDE].[All]" allUniqueName="[DIM LOCATION].[LATITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
@@ -727,6 +728,7 @@
     <cacheHierarchy uniqueName="[DIM LOCATION].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STATE].[All]" allUniqueName="[DIM LOCATION].[STATE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[ZIPCODE]" caption="ZIPCODE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[ZIPCODE].[All]" allUniqueName="[DIM LOCATION].[ZIPCODE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[DATE]" caption="DATE" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DATE].[All]" allUniqueName="[DIM TIME].[DATE].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[DAY]" caption="DAY" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DAY].[All]" allUniqueName="[DIM TIME].[DAY].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="6" unbalanced="0">
       <fieldsUsage count="6">
@@ -741,9 +743,9 @@
     <cacheHierarchy uniqueName="[DIM TIME].[HOUR]" caption="HOUR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[HOUR].[All]" allUniqueName="[DIM TIME].[HOUR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[IS WEEKEND]" caption="IS WEEKEND" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[IS WEEKEND].[All]" allUniqueName="[DIM TIME].[IS WEEKEND].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[MONTH]" caption="MONTH" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[MONTH].[All]" allUniqueName="[DIM TIME].[MONTH].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM TIME].[QUARTER]" caption="QUARTER" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[QUARTER].[All]" allUniqueName="[DIM TIME].[QUARTER].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[QUARTER]" caption="QUARTER" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[QUARTER].[All]" allUniqueName="[DIM TIME].[QUARTER].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[TIME ID]" caption="TIME ID" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DIM TIME].[TIME ID].[All]" allUniqueName="[DIM TIME].[TIME ID].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM TIME].[YEAR]" caption="YEAR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[YEAR].[All]" allUniqueName="[DIM TIME].[YEAR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[YEAR]" caption="YEAR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[YEAR].[All]" allUniqueName="[DIM TIME].[YEAR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[HUMIDITY]" caption="HUMIDITY" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[HUMIDITY].[All]" allUniqueName="[DIM WEATHER].[HUMIDITY].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[PRECIPITATION]" caption="PRECIPITATION" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[PRECIPITATION].[All]" allUniqueName="[DIM WEATHER].[PRECIPITATION].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM WEATHER].[PRESSURE]" caption="PRESSURE" attribute="1" defaultMemberUniqueName="[DIM WEATHER].[PRESSURE].[All]" allUniqueName="[DIM WEATHER].[PRESSURE].[All]" dimensionUniqueName="[DIM WEATHER]" displayFolder="" count="0" unbalanced="0"/>
@@ -760,17 +762,22 @@
     <cacheHierarchy uniqueName="[Measures].[DURATION]" caption="DURATION" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Total Accidents]" caption="Total Accidents" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="1"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[AvgSeverity]" caption="AvgSeverity" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DangerIndex]" caption="DangerIndex" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YoYGrowth_Percent]" caption="YoYGrowth_Percent" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg YoY Growth Range]" caption="Avg YoY Growth Range" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Traffic Signal)]" caption="Accidents (Traffic Signal)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Stop Sign)]" caption="Accidents (Stop Sign)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Top20CityHighestGrowth]" caption="Top20CityHighestGrowth" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="36" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
@@ -782,11 +789,8 @@
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="20" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="34" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="22" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
@@ -814,9 +818,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7713C6FC-512C-48F1-80C5-BEC9584B7C1C}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A4:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CE2ECE5-60D0-4D22-BAFF-B93C7B8F5E2F}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="13">
         <item x="0"/>
@@ -834,7 +839,6 @@
         <item x="12"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
@@ -846,7 +850,7 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="13">
     <i>
@@ -893,12 +897,14 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="2" hier="24" name="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2023]" cap="1"/>
+    <pageField fld="2" hier="26" name="[DIM TIME].[Hierarchy].[QUARTER].&amp;[1]&amp;[2023]" cap="1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="57">
+  <pivotHierarchies count="61">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -956,6 +962,8 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -966,7 +974,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="51"/>
+    <rowHierarchyUsage hierarchyUsage="58"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1295,139 +1303,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA29E41-F502-4FB4-B6AC-70A355B0A6EE}">
-  <dimension ref="A2:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CEC8B7-AD42-4A9B-B275-43D0ADE21243}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s" vm="1">
+      <c r="B1" t="s" vm="1">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1517</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1517</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1796</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1796</v>
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1044</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1044</v>
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1502</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1502</v>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2178</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2178</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1545</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1545</v>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4029</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4029</v>
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3464</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3464</v>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1560</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1560</v>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1159</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1159</v>
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1297</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1297</v>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1866</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
         <v>1873</v>
       </c>
     </row>
